--- a/Boletin_ Epi_Pereira/Datos/2024_831_Reporte.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/2024_831_Reporte.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="677">
   <si>
     <t>cod_eve</t>
   </si>
@@ -545,6 +545,9 @@
     <t>08/01/2024</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>3138501218</t>
   </si>
   <si>
@@ -557,6 +560,9 @@
     <t>3685024</t>
   </si>
   <si>
+    <t>28/02/2024</t>
+  </si>
+  <si>
     <t>8914087479</t>
   </si>
   <si>
@@ -569,6 +575,63 @@
     <t>15/01/2024</t>
   </si>
   <si>
+    <t>6600171151</t>
+  </si>
+  <si>
+    <t>MICHELLE</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MANZANO</t>
+  </si>
+  <si>
+    <t>107524002</t>
+  </si>
+  <si>
+    <t>SAMARIA I</t>
+  </si>
+  <si>
+    <t>MZ 6 CASA 33 SAMARIA I</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>RES001</t>
+  </si>
+  <si>
+    <t>10/01/2024</t>
+  </si>
+  <si>
+    <t>3116769648</t>
+  </si>
+  <si>
+    <t>06/04/2001</t>
+  </si>
+  <si>
+    <t>22/01/2024</t>
+  </si>
+  <si>
+    <t>PALA ANDREA OCAMPO</t>
+  </si>
+  <si>
+    <t>31231252</t>
+  </si>
+  <si>
+    <t>21/01/2024</t>
+  </si>
+  <si>
+    <t>9003394108</t>
+  </si>
+  <si>
+    <t>SIVIGILA - 2018 -18.6.5$0$0.0</t>
+  </si>
+  <si>
+    <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+  </si>
+  <si>
     <t>6600101587</t>
   </si>
   <si>
@@ -620,63 +683,6 @@
     <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
   </si>
   <si>
-    <t>6600171151</t>
-  </si>
-  <si>
-    <t>MICHELLE</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MANZANO</t>
-  </si>
-  <si>
-    <t>107524002</t>
-  </si>
-  <si>
-    <t>SAMARIA I</t>
-  </si>
-  <si>
-    <t>MZ 6 CASA 33 SAMARIA I</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>RES001</t>
-  </si>
-  <si>
-    <t>10/01/2024</t>
-  </si>
-  <si>
-    <t>3116769648</t>
-  </si>
-  <si>
-    <t>06/04/2001</t>
-  </si>
-  <si>
-    <t>22/01/2024</t>
-  </si>
-  <si>
-    <t>PALA ANDREA OCAMPO</t>
-  </si>
-  <si>
-    <t>31231252</t>
-  </si>
-  <si>
-    <t>21/01/2024</t>
-  </si>
-  <si>
-    <t>9003394108</t>
-  </si>
-  <si>
-    <t>SIVIGILA - 2018 -18.6.5$0$0.0</t>
-  </si>
-  <si>
-    <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
-  </si>
-  <si>
     <t>17/01/2024</t>
   </si>
   <si>
@@ -899,6 +905,63 @@
     <t>28/01/2024</t>
   </si>
   <si>
+    <t>6600102446</t>
+  </si>
+  <si>
+    <t>JENNYFER</t>
+  </si>
+  <si>
+    <t>CATALINA</t>
+  </si>
+  <si>
+    <t>ARENAS</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1088327758</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>ALTA PRADERA 2 APTO 103</t>
+  </si>
+  <si>
+    <t>22699</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>3113775667</t>
+  </si>
+  <si>
+    <t>01/07/1995</t>
+  </si>
+  <si>
+    <t>NATALIA LEON SISSIV[C00]</t>
+  </si>
+  <si>
+    <t>3146061940</t>
+  </si>
+  <si>
+    <t>30/01/2024</t>
+  </si>
+  <si>
+    <t>8600073361</t>
+  </si>
+  <si>
+    <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
+  </si>
+  <si>
+    <t>MARIA PAULA TEJADA SISSIV[C00]</t>
+  </si>
+  <si>
+    <t>3205485313</t>
+  </si>
+  <si>
     <t>VIVIANA</t>
   </si>
   <si>
@@ -920,9 +983,6 @@
     <t>96220</t>
   </si>
   <si>
-    <t>26/01/2024</t>
-  </si>
-  <si>
     <t>3206321227</t>
   </si>
   <si>
@@ -932,60 +992,6 @@
     <t xml:space="preserve"> FRANCISCO WILYER RODRIGUEZ SISSIV[C00]</t>
   </si>
   <si>
-    <t>30/01/2024</t>
-  </si>
-  <si>
-    <t>6600102446</t>
-  </si>
-  <si>
-    <t>JENNYFER</t>
-  </si>
-  <si>
-    <t>CATALINA</t>
-  </si>
-  <si>
-    <t>ARENAS</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1088327758</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>ALTA PRADERA 2 APTO 103</t>
-  </si>
-  <si>
-    <t>22699</t>
-  </si>
-  <si>
-    <t>3113775667</t>
-  </si>
-  <si>
-    <t>01/07/1995</t>
-  </si>
-  <si>
-    <t>NATALIA LEON SISSIV[C00]</t>
-  </si>
-  <si>
-    <t>3146061940</t>
-  </si>
-  <si>
-    <t>8600073361</t>
-  </si>
-  <si>
-    <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
-  </si>
-  <si>
-    <t>MARIA PAULA TEJADA SISSIV[C00]</t>
-  </si>
-  <si>
-    <t>3205485313</t>
-  </si>
-  <si>
     <t>29/01/2024</t>
   </si>
   <si>
@@ -1130,6 +1136,39 @@
     <t>05/02/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">HENAO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEJIA </t>
+  </si>
+  <si>
+    <t>1127206858</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALAMOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CRA28 BIS NO12-09 EDIFICIO BOQUIA APTO5</t>
+  </si>
+  <si>
+    <t>03/02/2024</t>
+  </si>
+  <si>
+    <t>3203476771</t>
+  </si>
+  <si>
+    <t>10/11/2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELA GARCIA </t>
+  </si>
+  <si>
+    <t>06/02/2024</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -1166,9 +1205,6 @@
     <t xml:space="preserve">OLGA JANETH ZAMORA  SISSIV[C00]</t>
   </si>
   <si>
-    <t>06/02/2024</t>
-  </si>
-  <si>
     <t>CENTRO MEDICO Y ODONTOLOGICO DE LA CIRCUNVALAR</t>
   </si>
   <si>
@@ -1223,36 +1259,6 @@
     <t>VIRREY SOLIS IPS LAGO</t>
   </si>
   <si>
-    <t xml:space="preserve">HENAO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEJIA </t>
-  </si>
-  <si>
-    <t>1127206858</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALAMOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CRA28 BIS NO12-09 EDIFICIO BOQUIA APTO5</t>
-  </si>
-  <si>
-    <t>03/02/2024</t>
-  </si>
-  <si>
-    <t>3203476771</t>
-  </si>
-  <si>
-    <t>10/11/2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIELA GARCIA </t>
-  </si>
-  <si>
     <t>09/02/2024</t>
   </si>
   <si>
@@ -1301,6 +1307,60 @@
     <t xml:space="preserve">INSTITUTO DE DIAGNOSTICO MEDICO DOSQUEBRADAS SAN FRANCISCO </t>
   </si>
   <si>
+    <t>10/02/2024</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>TOBON</t>
+  </si>
+  <si>
+    <t>LOPERA</t>
+  </si>
+  <si>
+    <t>1088312055</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRERA 38 B N 29-58 VILLA VERDE </t>
+  </si>
+  <si>
+    <t>53291</t>
+  </si>
+  <si>
+    <t>07/02/2024</t>
+  </si>
+  <si>
+    <t>3138024295</t>
+  </si>
+  <si>
+    <t>06/10/1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YULIANA RESTREPO ISAZA  SISSIV[C00]</t>
+  </si>
+  <si>
+    <t>3127635219</t>
+  </si>
+  <si>
+    <t>04/03/2024</t>
+  </si>
+  <si>
+    <t>8000003765</t>
+  </si>
+  <si>
+    <t>VIRREY SOLIS IPS SA</t>
+  </si>
+  <si>
     <t>15/02/2024</t>
   </si>
   <si>
@@ -1343,6 +1403,36 @@
     <t>16/02/2024</t>
   </si>
   <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>1026593057</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>POBLADO II</t>
+  </si>
+  <si>
+    <t>MANZANA 38A CASA 18</t>
+  </si>
+  <si>
+    <t>3195433319</t>
+  </si>
+  <si>
+    <t>09/12/1997</t>
+  </si>
+  <si>
+    <t>MARTIN BURBANO SISSIV[C00]</t>
+  </si>
+  <si>
+    <t>29/02/2024</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -1514,15 +1604,36 @@
     <t>VIRREY SOLIS SA PINARES</t>
   </si>
   <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>1089618781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANZANA 31 CASA 10 PARQUE INDUSTRIAL </t>
+  </si>
+  <si>
+    <t>3147416402</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JENNIFER GRAJALES  SISSIV[C80]</t>
+  </si>
+  <si>
+    <t>6063419167</t>
+  </si>
+  <si>
     <t>LUISA</t>
   </si>
   <si>
     <t>FERNANDA</t>
   </si>
   <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
     <t>1088282695</t>
   </si>
   <si>
@@ -1535,9 +1646,6 @@
     <t xml:space="preserve">AVENIDA BELMONTE # 93-10 TORRE  2 APARTAMENTO 304 SERREZUELA </t>
   </si>
   <si>
-    <t>53291</t>
-  </si>
-  <si>
     <t>3025654439</t>
   </si>
   <si>
@@ -1613,6 +1721,51 @@
     <t>UNIDAD INTERMEDIA DE KENNEDY</t>
   </si>
   <si>
+    <t>IVANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRAIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAMBRANO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALANCHE </t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>VEN1570699</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>862</t>
+  </si>
+  <si>
+    <t>VENEZUELA</t>
+  </si>
+  <si>
+    <t>PARQUE INDUSTRIAL SECTOR D MANZANA 12 A CASA 8 PISO 3</t>
+  </si>
+  <si>
+    <t>3213874041</t>
+  </si>
+  <si>
+    <t>10/10/2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA CRISTINA MORA </t>
+  </si>
+  <si>
+    <t>3187569900</t>
+  </si>
+  <si>
+    <t>27/02/2024</t>
+  </si>
+  <si>
     <t>25/02/2024</t>
   </si>
   <si>
@@ -1664,6 +1817,39 @@
     <t>LA VIRGINIA</t>
   </si>
   <si>
+    <t>SEBASTIAN</t>
+  </si>
+  <si>
+    <t>ISAAC</t>
+  </si>
+  <si>
+    <t>UZCATEGUI</t>
+  </si>
+  <si>
+    <t>CAICEDO</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>VEN7129798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECTOR D MANZANA 24 PARQUE INDUSTRIAL </t>
+  </si>
+  <si>
+    <t>24/02/2024</t>
+  </si>
+  <si>
+    <t>3218612260</t>
+  </si>
+  <si>
+    <t>21/12/2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERGIO BERNAL </t>
+  </si>
+  <si>
     <t>KAROL</t>
   </si>
   <si>
@@ -1700,43 +1886,163 @@
     <t>6063400990</t>
   </si>
   <si>
-    <t>SEBASTIAN</t>
-  </si>
-  <si>
-    <t>ISAAC</t>
-  </si>
-  <si>
-    <t>UZCATEGUI</t>
-  </si>
-  <si>
-    <t>CAICEDO</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>VEN7129798</t>
-  </si>
-  <si>
-    <t>862</t>
-  </si>
-  <si>
-    <t>VENEZUELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SECTOR D MANZANA 24 PARQUE INDUSTRIAL </t>
-  </si>
-  <si>
-    <t>24/02/2024</t>
-  </si>
-  <si>
-    <t>3218612260</t>
-  </si>
-  <si>
-    <t>21/12/2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERGIO BERNAL </t>
+    <t>NATHALY</t>
+  </si>
+  <si>
+    <t>MONTOYA</t>
+  </si>
+  <si>
+    <t>1093539763</t>
+  </si>
+  <si>
+    <t>CALLE 35 # 13-00</t>
+  </si>
+  <si>
+    <t>3023504697</t>
+  </si>
+  <si>
+    <t>16/09/1998</t>
+  </si>
+  <si>
+    <t>MARTIN BURBANO SISSIV[1000000C80]</t>
+  </si>
+  <si>
+    <t>3357454</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>1088830938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL JAPON </t>
+  </si>
+  <si>
+    <t>TORRE A2 APARTAMENTO 104</t>
+  </si>
+  <si>
+    <t>3107222352</t>
+  </si>
+  <si>
+    <t>20/07/2008</t>
+  </si>
+  <si>
+    <t>OLGA JANETH ZAMORA SISSIV[C80]</t>
+  </si>
+  <si>
+    <t>BLANCO</t>
+  </si>
+  <si>
+    <t>VICTORIA</t>
+  </si>
+  <si>
+    <t>1089618588</t>
+  </si>
+  <si>
+    <t>MANZANA 5 CASA 28 MALAGA PARQUE INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>3108967336</t>
+  </si>
+  <si>
+    <t>20/04/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE FERNANDO RUBIO  SISSIV[C80]</t>
+  </si>
+  <si>
+    <t>LINA</t>
+  </si>
+  <si>
+    <t>MARCELA</t>
+  </si>
+  <si>
+    <t>AGUDELO</t>
+  </si>
+  <si>
+    <t>1004683306</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>GALICIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRA 15 # 176-62 BARRIO LA ESPERANZA </t>
+  </si>
+  <si>
+    <t>3223080736</t>
+  </si>
+  <si>
+    <t>20/04/2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARITZA MARULANDA ARIAS  SISSIV[C00]</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>CAÑON</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>1004669937</t>
+  </si>
+  <si>
+    <t>LENIGRADO II</t>
+  </si>
+  <si>
+    <t>MANZANA 24 CASA 341 LENIGRADO II</t>
+  </si>
+  <si>
+    <t>95200</t>
+  </si>
+  <si>
+    <t>3236929798</t>
+  </si>
+  <si>
+    <t>01/02/2003</t>
+  </si>
+  <si>
+    <t>JENNY CANO SISSIV[C00]</t>
+  </si>
+  <si>
+    <t>05/03/2024</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
+    <t>POSADA</t>
+  </si>
+  <si>
+    <t>GALLEGO</t>
+  </si>
+  <si>
+    <t>1088286593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIVINO NIÑO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLE 74 BIS N 19-25 PISO 2 BARRIO DIVINO NIÑO </t>
+  </si>
+  <si>
+    <t>3215014785</t>
+  </si>
+  <si>
+    <t>19/02/1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOL MARIA ESPARRAGOZA  SISSIV[C80]</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +2088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CF34"/>
+  <dimension ref="A1:CF44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2848,28 +3154,28 @@
         <v>111</v>
       </c>
       <c r="BE5" s="0" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="BF5" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BG5" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BL5" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM5" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BN5" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BO5" s="0" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="BP5" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BT5" s="0" t="s">
         <v>119</v>
@@ -2878,7 +3184,7 @@
         <v>120</v>
       </c>
       <c r="BV5" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BW5" s="0" t="s">
         <v>97</v>
@@ -2902,10 +3208,10 @@
         <v>122</v>
       </c>
       <c r="CD5" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CE5" s="0" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="CF5" s="0">
         <v>0</v>
@@ -2916,40 +3222,40 @@
         <v>84</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>191</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>96</v>
@@ -2973,16 +3279,19 @@
         <v>86</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>154</v>
+        <v>123</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>192</v>
       </c>
       <c r="Z6" s="0" t="s">
         <v>193</v>
       </c>
       <c r="AA6" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB6" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="AB6" s="0" t="s">
-        <v>136</v>
       </c>
       <c r="AC6" s="0" t="s">
         <v>195</v>
@@ -2991,7 +3300,7 @@
         <v>107</v>
       </c>
       <c r="AF6" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AG6" s="0" t="s">
         <v>101</v>
@@ -3042,10 +3351,10 @@
         <v>100</v>
       </c>
       <c r="AX6" s="0" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="AY6" s="0" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AZ6" s="0" t="s">
         <v>110</v>
@@ -3066,34 +3375,34 @@
         <v>112</v>
       </c>
       <c r="BF6" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BG6" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="BL6" s="0" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="BM6" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BN6" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BO6" s="0" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="BP6" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="BT6" s="0" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="BU6" s="0" t="s">
         <v>120</v>
       </c>
       <c r="BV6" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="BW6" s="0" t="s">
         <v>97</v>
@@ -3120,7 +3429,7 @@
         <v>123</v>
       </c>
       <c r="CE6" s="0" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="CF6" s="0">
         <v>0</v>
@@ -3131,40 +3440,40 @@
         <v>84</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>96</v>
@@ -3188,28 +3497,25 @@
         <v>86</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y7" s="0" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AD7" s="0" t="s">
         <v>107</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AG7" s="0" t="s">
         <v>101</v>
@@ -3260,10 +3566,10 @@
         <v>100</v>
       </c>
       <c r="AX7" s="0" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="AY7" s="0" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="AZ7" s="0" t="s">
         <v>110</v>
@@ -3284,34 +3590,34 @@
         <v>112</v>
       </c>
       <c r="BF7" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="BG7" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="BL7" s="0" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="BM7" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="BN7" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="BO7" s="0" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="BP7" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="BT7" s="0" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="BU7" s="0" t="s">
         <v>120</v>
       </c>
       <c r="BV7" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="BW7" s="0" t="s">
         <v>97</v>
@@ -3338,7 +3644,7 @@
         <v>123</v>
       </c>
       <c r="CE7" s="0" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="CF7" s="0">
         <v>0</v>
@@ -3349,7 +3655,7 @@
         <v>84</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>108</v>
@@ -3358,25 +3664,25 @@
         <v>87</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>86</v>
@@ -3409,19 +3715,19 @@
         <v>123</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="AB8" s="0" t="s">
         <v>136</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AD8" s="0" t="s">
         <v>107</v>
@@ -3478,10 +3784,10 @@
         <v>96</v>
       </c>
       <c r="AX8" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AY8" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AZ8" s="0" t="s">
         <v>110</v>
@@ -3502,25 +3808,25 @@
         <v>112</v>
       </c>
       <c r="BF8" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="BG8" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="BL8" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM8" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BN8" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BO8" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BP8" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BT8" s="0" t="s">
         <v>119</v>
@@ -3529,7 +3835,7 @@
         <v>120</v>
       </c>
       <c r="BV8" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="BW8" s="0" t="s">
         <v>97</v>
@@ -3547,16 +3853,16 @@
         <v>122</v>
       </c>
       <c r="CB8" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CC8" s="0" t="s">
         <v>122</v>
       </c>
       <c r="CD8" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CE8" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="CF8" s="0">
         <v>0</v>
@@ -3567,7 +3873,7 @@
         <v>84</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>108</v>
@@ -3576,28 +3882,28 @@
         <v>87</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>146</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>130</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>86</v>
@@ -3630,16 +3936,16 @@
         <v>102</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="AB9" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AD9" s="0" t="s">
         <v>107</v>
@@ -3696,10 +4002,10 @@
         <v>96</v>
       </c>
       <c r="AX9" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AY9" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AZ9" s="0" t="s">
         <v>110</v>
@@ -3720,25 +4026,25 @@
         <v>112</v>
       </c>
       <c r="BF9" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BG9" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="BL9" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM9" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BN9" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BO9" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BP9" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BT9" s="0" t="s">
         <v>119</v>
@@ -3747,7 +4053,7 @@
         <v>120</v>
       </c>
       <c r="BV9" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="BW9" s="0" t="s">
         <v>97</v>
@@ -3756,7 +4062,7 @@
         <v>122</v>
       </c>
       <c r="BY9" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="BZ9" s="0" t="s">
         <v>97</v>
@@ -3765,7 +4071,7 @@
         <v>122</v>
       </c>
       <c r="CB9" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CC9" s="0" t="s">
         <v>122</v>
@@ -3774,7 +4080,7 @@
         <v>123</v>
       </c>
       <c r="CE9" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CF9" s="0">
         <v>0</v>
@@ -3785,7 +4091,7 @@
         <v>84</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>108</v>
@@ -3794,25 +4100,25 @@
         <v>87</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>146</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>158</v>
@@ -3836,7 +4142,7 @@
         <v>99</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="U10" s="0" t="s">
         <v>86</v>
@@ -3848,16 +4154,16 @@
         <v>102</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="AB10" s="0" t="s">
         <v>136</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AD10" s="0" t="s">
         <v>107</v>
@@ -3911,13 +4217,13 @@
         <v>99</v>
       </c>
       <c r="AW10" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AX10" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AY10" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AZ10" s="0" t="s">
         <v>110</v>
@@ -3938,25 +4244,25 @@
         <v>112</v>
       </c>
       <c r="BF10" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="BG10" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BL10" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM10" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="BN10" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="BO10" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="BP10" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BT10" s="0" t="s">
         <v>119</v>
@@ -3965,7 +4271,7 @@
         <v>120</v>
       </c>
       <c r="BV10" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="BW10" s="0" t="s">
         <v>97</v>
@@ -3974,7 +4280,7 @@
         <v>122</v>
       </c>
       <c r="BY10" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="BZ10" s="0" t="s">
         <v>97</v>
@@ -3983,7 +4289,7 @@
         <v>122</v>
       </c>
       <c r="CB10" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="CC10" s="0" t="s">
         <v>122</v>
@@ -3992,7 +4298,7 @@
         <v>123</v>
       </c>
       <c r="CE10" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="CF10" s="0">
         <v>0</v>
@@ -4003,7 +4309,7 @@
         <v>84</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>108</v>
@@ -4018,25 +4324,25 @@
         <v>146</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>130</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>86</v>
@@ -4066,19 +4372,19 @@
         <v>154</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="AB11" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AD11" s="0" t="s">
         <v>107</v>
@@ -4135,10 +4441,10 @@
         <v>100</v>
       </c>
       <c r="AX11" s="0" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="AY11" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AZ11" s="0" t="s">
         <v>110</v>
@@ -4159,22 +4465,22 @@
         <v>112</v>
       </c>
       <c r="BF11" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BG11" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="BL11" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM11" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="BN11" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="BO11" s="0" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BP11" s="0" t="s">
         <v>164</v>
@@ -4213,7 +4519,7 @@
         <v>123</v>
       </c>
       <c r="CE11" s="0" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="CF11" s="0">
         <v>0</v>
@@ -4224,7 +4530,7 @@
         <v>84</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>108</v>
@@ -4233,25 +4539,25 @@
         <v>87</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>146</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>93</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>95</v>
@@ -4284,10 +4590,10 @@
         <v>102</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AA12" s="0" t="s">
         <v>104</v>
@@ -4296,7 +4602,7 @@
         <v>105</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AD12" s="0" t="s">
         <v>107</v>
@@ -4353,10 +4659,10 @@
         <v>100</v>
       </c>
       <c r="AX12" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AY12" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AZ12" s="0" t="s">
         <v>110</v>
@@ -4377,25 +4683,25 @@
         <v>112</v>
       </c>
       <c r="BF12" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="BG12" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="BL12" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM12" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="BN12" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="BO12" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BP12" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BT12" s="0" t="s">
         <v>119</v>
@@ -4404,7 +4710,7 @@
         <v>120</v>
       </c>
       <c r="BV12" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="BW12" s="0" t="s">
         <v>97</v>
@@ -4431,7 +4737,7 @@
         <v>123</v>
       </c>
       <c r="CE12" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="CF12" s="0">
         <v>0</v>
@@ -4442,7 +4748,7 @@
         <v>84</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>110</v>
@@ -4451,31 +4757,31 @@
         <v>87</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>88</v>
+        <v>297</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>148</v>
+        <v>299</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>149</v>
+        <v>301</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>130</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>86</v>
@@ -4487,7 +4793,7 @@
         <v>97</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="R13" s="0" t="s">
         <v>96</v>
@@ -4496,32 +4802,32 @@
         <v>99</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="W13" s="0" t="s">
-        <v>299</v>
+        <v>86</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>155</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AB13" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c r="AD13" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="AF13" s="0" t="s">
-        <v>110</v>
-      </c>
       <c r="AG13" s="0" t="s">
         <v>101</v>
       </c>
@@ -4559,7 +4865,7 @@
         <v>86</v>
       </c>
       <c r="AT13" s="0" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="AU13" s="0" t="s">
         <v>96</v>
@@ -4568,16 +4874,16 @@
         <v>99</v>
       </c>
       <c r="AW13" s="0" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AX13" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AY13" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AZ13" s="0" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="BA13" s="0" t="s">
         <v>101</v>
@@ -4595,25 +4901,25 @@
         <v>112</v>
       </c>
       <c r="BF13" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="BG13" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="BL13" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM13" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="BN13" s="0" t="s">
-        <v>116</v>
+        <v>310</v>
       </c>
       <c r="BO13" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="BP13" s="0" t="s">
-        <v>118</v>
+        <v>312</v>
       </c>
       <c r="BT13" s="0" t="s">
         <v>119</v>
@@ -4622,7 +4928,7 @@
         <v>120</v>
       </c>
       <c r="BV13" s="0" t="s">
-        <v>121</v>
+        <v>313</v>
       </c>
       <c r="BW13" s="0" t="s">
         <v>97</v>
@@ -4631,7 +4937,7 @@
         <v>122</v>
       </c>
       <c r="BY13" s="0" t="s">
-        <v>123</v>
+        <v>239</v>
       </c>
       <c r="BZ13" s="0" t="s">
         <v>97</v>
@@ -4640,7 +4946,7 @@
         <v>122</v>
       </c>
       <c r="CB13" s="0" t="s">
-        <v>123</v>
+        <v>239</v>
       </c>
       <c r="CC13" s="0" t="s">
         <v>122</v>
@@ -4649,7 +4955,7 @@
         <v>123</v>
       </c>
       <c r="CE13" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="CF13" s="0">
         <v>0</v>
@@ -4660,7 +4966,7 @@
         <v>84</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>110</v>
@@ -4669,31 +4975,31 @@
         <v>87</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>307</v>
+        <v>145</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>146</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>130</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="N14" s="0" t="s">
         <v>86</v>
@@ -4726,10 +5032,10 @@
         <v>155</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="AB14" s="0" t="s">
         <v>105</v>
@@ -4789,10 +5095,10 @@
         <v>96</v>
       </c>
       <c r="AX14" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AY14" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AZ14" s="0" t="s">
         <v>158</v>
@@ -4813,25 +5119,25 @@
         <v>112</v>
       </c>
       <c r="BF14" s="0" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="BG14" s="0" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="BL14" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM14" s="0" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="BN14" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="BO14" s="0" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="BP14" s="0" t="s">
-        <v>320</v>
+        <v>164</v>
       </c>
       <c r="BT14" s="0" t="s">
         <v>119</v>
@@ -4840,7 +5146,7 @@
         <v>120</v>
       </c>
       <c r="BV14" s="0" t="s">
-        <v>321</v>
+        <v>165</v>
       </c>
       <c r="BW14" s="0" t="s">
         <v>97</v>
@@ -4849,7 +5155,7 @@
         <v>122</v>
       </c>
       <c r="BY14" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="BZ14" s="0" t="s">
         <v>97</v>
@@ -4858,7 +5164,7 @@
         <v>122</v>
       </c>
       <c r="CB14" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CC14" s="0" t="s">
         <v>122</v>
@@ -4867,7 +5173,7 @@
         <v>123</v>
       </c>
       <c r="CE14" s="0" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="CF14" s="0">
         <v>0</v>
@@ -4878,7 +5184,7 @@
         <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>110</v>
@@ -4887,31 +5193,31 @@
         <v>87</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>309</v>
+        <v>148</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>311</v>
+        <v>149</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>130</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>86</v>
@@ -4923,7 +5229,7 @@
         <v>97</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="R15" s="0" t="s">
         <v>96</v>
@@ -4932,32 +5238,32 @@
         <v>99</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="V15" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y15" s="0" t="s">
-        <v>155</v>
+        <v>101</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>320</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AB15" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>157</v>
+        <v>278</v>
       </c>
       <c r="AD15" s="0" t="s">
         <v>107</v>
       </c>
+      <c r="AF15" s="0" t="s">
+        <v>110</v>
+      </c>
       <c r="AG15" s="0" t="s">
         <v>101</v>
       </c>
@@ -4995,7 +5301,7 @@
         <v>86</v>
       </c>
       <c r="AT15" s="0" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AU15" s="0" t="s">
         <v>96</v>
@@ -5004,16 +5310,16 @@
         <v>99</v>
       </c>
       <c r="AW15" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AX15" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AY15" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AZ15" s="0" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="BA15" s="0" t="s">
         <v>101</v>
@@ -5031,25 +5337,25 @@
         <v>112</v>
       </c>
       <c r="BF15" s="0" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="BG15" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="BL15" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM15" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="BN15" s="0" t="s">
-        <v>323</v>
+        <v>116</v>
       </c>
       <c r="BO15" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="BP15" s="0" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="BT15" s="0" t="s">
         <v>119</v>
@@ -5058,7 +5364,7 @@
         <v>120</v>
       </c>
       <c r="BV15" s="0" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="BW15" s="0" t="s">
         <v>97</v>
@@ -5067,7 +5373,7 @@
         <v>122</v>
       </c>
       <c r="BY15" s="0" t="s">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="BZ15" s="0" t="s">
         <v>97</v>
@@ -5076,7 +5382,7 @@
         <v>122</v>
       </c>
       <c r="CB15" s="0" t="s">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="CC15" s="0" t="s">
         <v>122</v>
@@ -5085,7 +5391,7 @@
         <v>123</v>
       </c>
       <c r="CE15" s="0" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="CF15" s="0">
         <v>0</v>
@@ -5096,7 +5402,7 @@
         <v>84</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>110</v>
@@ -5111,22 +5417,22 @@
         <v>89</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>93</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>86</v>
@@ -5153,10 +5459,10 @@
         <v>101</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AA16" s="0" t="s">
         <v>104</v>
@@ -5222,10 +5528,10 @@
         <v>96</v>
       </c>
       <c r="AX16" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AY16" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AZ16" s="0" t="s">
         <v>110</v>
@@ -5246,22 +5552,22 @@
         <v>112</v>
       </c>
       <c r="BF16" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="BG16" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="BL16" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM16" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BN16" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="BO16" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="BP16" s="0" t="s">
         <v>118</v>
@@ -5282,7 +5588,7 @@
         <v>122</v>
       </c>
       <c r="BY16" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="BZ16" s="0" t="s">
         <v>97</v>
@@ -5291,7 +5597,7 @@
         <v>122</v>
       </c>
       <c r="CB16" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CC16" s="0" t="s">
         <v>122</v>
@@ -5300,7 +5606,7 @@
         <v>123</v>
       </c>
       <c r="CE16" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="CF16" s="0">
         <v>0</v>
@@ -5311,7 +5617,7 @@
         <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>110</v>
@@ -5326,19 +5632,19 @@
         <v>89</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>158</v>
@@ -5368,10 +5674,10 @@
         <v>101</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AA17" s="0" t="s">
         <v>104</v>
@@ -5437,10 +5743,10 @@
         <v>96</v>
       </c>
       <c r="AX17" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AY17" s="0" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="AZ17" s="0" t="s">
         <v>110</v>
@@ -5461,22 +5767,22 @@
         <v>112</v>
       </c>
       <c r="BF17" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="BG17" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="BL17" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM17" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="BN17" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="BO17" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="BP17" s="0" t="s">
         <v>118</v>
@@ -5497,7 +5803,7 @@
         <v>122</v>
       </c>
       <c r="BY17" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="BZ17" s="0" t="s">
         <v>97</v>
@@ -5506,7 +5812,7 @@
         <v>122</v>
       </c>
       <c r="CB17" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CC17" s="0" t="s">
         <v>122</v>
@@ -5515,7 +5821,7 @@
         <v>123</v>
       </c>
       <c r="CE17" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="CF17" s="0">
         <v>0</v>
@@ -5526,7 +5832,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>158</v>
@@ -5541,22 +5847,22 @@
         <v>146</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>130</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N18" s="0" t="s">
         <v>86</v>
@@ -5586,19 +5892,19 @@
         <v>154</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AB18" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AD18" s="0" t="s">
         <v>107</v>
@@ -5652,10 +5958,10 @@
         <v>96</v>
       </c>
       <c r="AX18" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AY18" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AZ18" s="0" t="s">
         <v>110</v>
@@ -5676,22 +5982,22 @@
         <v>112</v>
       </c>
       <c r="BF18" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BG18" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="BL18" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM18" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="BN18" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="BO18" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="BP18" s="0" t="s">
         <v>164</v>
@@ -5712,7 +6018,7 @@
         <v>122</v>
       </c>
       <c r="BY18" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="BZ18" s="0" t="s">
         <v>97</v>
@@ -5721,7 +6027,7 @@
         <v>122</v>
       </c>
       <c r="CB18" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CC18" s="0" t="s">
         <v>122</v>
@@ -5730,7 +6036,7 @@
         <v>123</v>
       </c>
       <c r="CE18" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="CF18" s="0">
         <v>0</v>
@@ -5741,7 +6047,7 @@
         <v>84</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>158</v>
@@ -5750,31 +6056,31 @@
         <v>87</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>146</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>130</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N19" s="0" t="s">
         <v>86</v>
@@ -5801,16 +6107,16 @@
         <v>86</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Y19" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Z19" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AA19" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AB19" s="0" t="s">
         <v>105</v>
@@ -5873,10 +6179,10 @@
         <v>100</v>
       </c>
       <c r="AX19" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AY19" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AZ19" s="0" t="s">
         <v>110</v>
@@ -5897,25 +6203,25 @@
         <v>112</v>
       </c>
       <c r="BF19" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="BG19" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="BL19" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM19" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="BN19" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="BO19" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="BP19" s="0" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="BT19" s="0" t="s">
         <v>119</v>
@@ -5924,7 +6230,7 @@
         <v>120</v>
       </c>
       <c r="BV19" s="0" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="BW19" s="0" t="s">
         <v>97</v>
@@ -5951,7 +6257,7 @@
         <v>123</v>
       </c>
       <c r="CE19" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="CF19" s="0">
         <v>0</v>
@@ -5962,7 +6268,7 @@
         <v>84</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>158</v>
@@ -5971,32 +6277,29 @@
         <v>87</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>372</v>
+        <v>146</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="H20" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="I20" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="J20" s="0" t="s">
         <v>375</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>376</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>130</v>
       </c>
       <c r="L20" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="M20" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="M20" s="0" t="s">
-        <v>378</v>
-      </c>
       <c r="N20" s="0" t="s">
         <v>86</v>
       </c>
@@ -6007,7 +6310,7 @@
         <v>97</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="R20" s="0" t="s">
         <v>96</v>
@@ -6019,28 +6322,31 @@
         <v>100</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="W20" s="0" t="s">
-        <v>227</v>
+        <v>86</v>
+      </c>
+      <c r="V20" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y20" s="0" t="s">
+        <v>378</v>
       </c>
       <c r="Z20" s="0" t="s">
         <v>379</v>
       </c>
       <c r="AA20" s="0" t="s">
-        <v>301</v>
+        <v>104</v>
       </c>
       <c r="AB20" s="0" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="AC20" s="0" t="s">
-        <v>380</v>
+        <v>106</v>
       </c>
       <c r="AD20" s="0" t="s">
         <v>107</v>
       </c>
       <c r="AF20" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG20" s="0" t="s">
         <v>101</v>
@@ -6091,10 +6397,10 @@
         <v>100</v>
       </c>
       <c r="AX20" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AY20" s="0" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="AZ20" s="0" t="s">
         <v>110</v>
@@ -6127,13 +6433,13 @@
         <v>383</v>
       </c>
       <c r="BN20" s="0" t="s">
-        <v>116</v>
+        <v>283</v>
       </c>
       <c r="BO20" s="0" t="s">
         <v>384</v>
       </c>
       <c r="BP20" s="0" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="BT20" s="0" t="s">
         <v>119</v>
@@ -6142,7 +6448,7 @@
         <v>120</v>
       </c>
       <c r="BV20" s="0" t="s">
-        <v>385</v>
+        <v>165</v>
       </c>
       <c r="BW20" s="0" t="s">
         <v>97</v>
@@ -6180,7 +6486,7 @@
         <v>84</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>158</v>
@@ -6189,31 +6495,31 @@
         <v>87</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="H21" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="I21" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="J21" s="0" t="s">
         <v>389</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>130</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>152</v>
+        <v>391</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>86</v>
@@ -6225,7 +6531,7 @@
         <v>97</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="R21" s="0" t="s">
         <v>96</v>
@@ -6237,31 +6543,28 @@
         <v>100</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="V21" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA21" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC21" s="0" t="s">
         <v>393</v>
-      </c>
-      <c r="Y21" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="Z21" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA21" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="AB21" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC21" s="0" t="s">
-        <v>246</v>
       </c>
       <c r="AD21" s="0" t="s">
         <v>107</v>
       </c>
       <c r="AF21" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AG21" s="0" t="s">
         <v>101</v>
@@ -6312,10 +6615,10 @@
         <v>100</v>
       </c>
       <c r="AX21" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AY21" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AZ21" s="0" t="s">
         <v>110</v>
@@ -6336,25 +6639,25 @@
         <v>112</v>
       </c>
       <c r="BF21" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="BG21" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="BL21" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM21" s="0" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="BN21" s="0" t="s">
-        <v>400</v>
+        <v>116</v>
       </c>
       <c r="BO21" s="0" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="BP21" s="0" t="s">
-        <v>401</v>
+        <v>118</v>
       </c>
       <c r="BT21" s="0" t="s">
         <v>119</v>
@@ -6363,7 +6666,7 @@
         <v>120</v>
       </c>
       <c r="BV21" s="0" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="BW21" s="0" t="s">
         <v>97</v>
@@ -6390,7 +6693,7 @@
         <v>123</v>
       </c>
       <c r="CE21" s="0" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="CF21" s="0">
         <v>0</v>
@@ -6401,7 +6704,7 @@
         <v>84</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>158</v>
@@ -6410,28 +6713,31 @@
         <v>87</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>145</v>
+        <v>398</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>146</v>
+        <v>399</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>325</v>
+        <v>400</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>401</v>
       </c>
       <c r="I22" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="J22" s="0" t="s">
         <v>403</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>404</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>130</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>406</v>
+        <v>152</v>
       </c>
       <c r="N22" s="0" t="s">
         <v>86</v>
@@ -6458,28 +6764,28 @@
         <v>86</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>154</v>
+        <v>405</v>
       </c>
       <c r="Y22" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z22" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="Z22" s="0" t="s">
+      <c r="AA22" s="0" t="s">
         <v>408</v>
-      </c>
-      <c r="AA22" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="AB22" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AC22" s="0" t="s">
-        <v>106</v>
+        <v>248</v>
       </c>
       <c r="AD22" s="0" t="s">
         <v>107</v>
       </c>
       <c r="AF22" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AG22" s="0" t="s">
         <v>101</v>
@@ -6530,10 +6836,10 @@
         <v>100</v>
       </c>
       <c r="AX22" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AY22" s="0" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="AZ22" s="0" t="s">
         <v>110</v>
@@ -6554,25 +6860,25 @@
         <v>112</v>
       </c>
       <c r="BF22" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="BG22" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="BG22" s="0" t="s">
+      <c r="BL22" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM22" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="BL22" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM22" s="0" t="s">
+      <c r="BN22" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="BN22" s="0" t="s">
-        <v>281</v>
-      </c>
       <c r="BO22" s="0" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="BP22" s="0" t="s">
-        <v>164</v>
+        <v>413</v>
       </c>
       <c r="BT22" s="0" t="s">
         <v>119</v>
@@ -6581,7 +6887,7 @@
         <v>120</v>
       </c>
       <c r="BV22" s="0" t="s">
-        <v>165</v>
+        <v>414</v>
       </c>
       <c r="BW22" s="0" t="s">
         <v>97</v>
@@ -6608,7 +6914,7 @@
         <v>123</v>
       </c>
       <c r="CE22" s="0" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="CF22" s="0">
         <v>0</v>
@@ -6619,7 +6925,7 @@
         <v>84</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>107</v>
@@ -6628,28 +6934,28 @@
         <v>87</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>130</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>86</v>
@@ -6679,19 +6985,19 @@
         <v>154</v>
       </c>
       <c r="Y23" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Z23" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AA23" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AB23" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AC23" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AD23" s="0" t="s">
         <v>107</v>
@@ -6748,7 +7054,7 @@
         <v>96</v>
       </c>
       <c r="AX23" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AY23" s="0" t="s">
         <v>384</v>
@@ -6772,34 +7078,34 @@
         <v>112</v>
       </c>
       <c r="BF23" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="BG23" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="BL23" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="BM23" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="BN23" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="BO23" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="BP23" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="BT23" s="0" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="BU23" s="0" t="s">
         <v>120</v>
       </c>
       <c r="BV23" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="BW23" s="0" t="s">
         <v>97</v>
@@ -6817,16 +7123,16 @@
         <v>122</v>
       </c>
       <c r="CB23" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CC23" s="0" t="s">
         <v>122</v>
       </c>
       <c r="CD23" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CE23" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="CF23" s="0">
         <v>0</v>
@@ -6837,37 +7143,40 @@
         <v>84</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>430</v>
+        <v>107</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>88</v>
+        <v>398</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>89</v>
+        <v>432</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>434</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="N24" s="0" t="s">
         <v>86</v>
@@ -6891,28 +7200,31 @@
         <v>100</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="W24" s="0" t="s">
-        <v>436</v>
+        <v>86</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>276</v>
       </c>
       <c r="Z24" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AA24" s="0" t="s">
-        <v>104</v>
+        <v>440</v>
       </c>
       <c r="AB24" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AC24" s="0" t="s">
-        <v>106</v>
+        <v>248</v>
       </c>
       <c r="AD24" s="0" t="s">
         <v>107</v>
       </c>
       <c r="AF24" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AG24" s="0" t="s">
         <v>101</v>
@@ -6963,10 +7275,10 @@
         <v>100</v>
       </c>
       <c r="AX24" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AY24" s="0" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="AZ24" s="0" t="s">
         <v>110</v>
@@ -6987,25 +7299,25 @@
         <v>112</v>
       </c>
       <c r="BF24" s="0" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="BG24" s="0" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="BL24" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM24" s="0" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="BN24" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="BO24" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="BP24" s="0" t="s">
-        <v>118</v>
+        <v>447</v>
       </c>
       <c r="BT24" s="0" t="s">
         <v>119</v>
@@ -7014,7 +7326,7 @@
         <v>120</v>
       </c>
       <c r="BV24" s="0" t="s">
-        <v>121</v>
+        <v>448</v>
       </c>
       <c r="BW24" s="0" t="s">
         <v>97</v>
@@ -7041,7 +7353,7 @@
         <v>123</v>
       </c>
       <c r="CE24" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="CF24" s="0">
         <v>0</v>
@@ -7052,40 +7364,37 @@
         <v>84</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>107</v>
+        <v>450</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>307</v>
+        <v>88</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>443</v>
+        <v>89</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>152</v>
+        <v>455</v>
       </c>
       <c r="N25" s="0" t="s">
         <v>86</v>
@@ -7097,7 +7406,7 @@
         <v>97</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="R25" s="0" t="s">
         <v>96</v>
@@ -7109,25 +7418,22 @@
         <v>100</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="V25" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y25" s="0" t="s">
-        <v>394</v>
+        <v>101</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>456</v>
       </c>
       <c r="Z25" s="0" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="AA25" s="0" t="s">
-        <v>450</v>
+        <v>104</v>
       </c>
       <c r="AB25" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AC25" s="0" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="AD25" s="0" t="s">
         <v>107</v>
@@ -7184,10 +7490,10 @@
         <v>100</v>
       </c>
       <c r="AX25" s="0" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="AY25" s="0" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="AZ25" s="0" t="s">
         <v>110</v>
@@ -7208,25 +7514,25 @@
         <v>112</v>
       </c>
       <c r="BF25" s="0" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="BG25" s="0" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="BL25" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM25" s="0" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="BN25" s="0" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="BO25" s="0" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="BP25" s="0" t="s">
-        <v>320</v>
+        <v>118</v>
       </c>
       <c r="BT25" s="0" t="s">
         <v>119</v>
@@ -7235,7 +7541,7 @@
         <v>120</v>
       </c>
       <c r="BV25" s="0" t="s">
-        <v>321</v>
+        <v>121</v>
       </c>
       <c r="BW25" s="0" t="s">
         <v>97</v>
@@ -7262,7 +7568,7 @@
         <v>123</v>
       </c>
       <c r="CE25" s="0" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="CF25" s="0">
         <v>0</v>
@@ -7273,37 +7579,40 @@
         <v>84</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>457</v>
+        <v>241</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>458</v>
+        <v>146</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>147</v>
+        <v>463</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>434</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>459</v>
+        <v>273</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>130</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="N26" s="0" t="s">
         <v>86</v>
@@ -7330,22 +7639,22 @@
         <v>86</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>463</v>
+        <v>102</v>
       </c>
       <c r="Y26" s="0" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="Z26" s="0" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AA26" s="0" t="s">
-        <v>466</v>
+        <v>215</v>
       </c>
       <c r="AB26" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AC26" s="0" t="s">
-        <v>467</v>
+        <v>248</v>
       </c>
       <c r="AD26" s="0" t="s">
         <v>107</v>
@@ -7402,10 +7711,10 @@
         <v>100</v>
       </c>
       <c r="AX26" s="0" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="AY26" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AZ26" s="0" t="s">
         <v>110</v>
@@ -7438,13 +7747,13 @@
         <v>471</v>
       </c>
       <c r="BN26" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="BO26" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="BO26" s="0" t="s">
-        <v>473</v>
-      </c>
       <c r="BP26" s="0" t="s">
-        <v>427</v>
+        <v>254</v>
       </c>
       <c r="BT26" s="0" t="s">
         <v>119</v>
@@ -7453,7 +7762,7 @@
         <v>120</v>
       </c>
       <c r="BV26" s="0" t="s">
-        <v>474</v>
+        <v>255</v>
       </c>
       <c r="BW26" s="0" t="s">
         <v>97</v>
@@ -7480,7 +7789,7 @@
         <v>123</v>
       </c>
       <c r="CE26" s="0" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="CF26" s="0">
         <v>0</v>
@@ -7491,40 +7800,40 @@
         <v>84</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>476</v>
+        <v>107</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>88</v>
+        <v>297</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>146</v>
+        <v>473</v>
       </c>
       <c r="G27" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="J27" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="K27" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L27" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="I27" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>480</v>
-      </c>
       <c r="M27" s="0" t="s">
-        <v>481</v>
+        <v>152</v>
       </c>
       <c r="N27" s="0" t="s">
         <v>86</v>
@@ -7548,22 +7857,25 @@
         <v>100</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="W27" s="0" t="s">
-        <v>482</v>
+        <v>86</v>
+      </c>
+      <c r="V27" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y27" s="0" t="s">
+        <v>406</v>
       </c>
       <c r="Z27" s="0" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AA27" s="0" t="s">
-        <v>104</v>
+        <v>480</v>
       </c>
       <c r="AB27" s="0" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="AC27" s="0" t="s">
-        <v>380</v>
+        <v>157</v>
       </c>
       <c r="AD27" s="0" t="s">
         <v>107</v>
@@ -7620,10 +7932,10 @@
         <v>100</v>
       </c>
       <c r="AX27" s="0" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="AY27" s="0" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AZ27" s="0" t="s">
         <v>110</v>
@@ -7644,25 +7956,25 @@
         <v>112</v>
       </c>
       <c r="BF27" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="BG27" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="BL27" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM27" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="BN27" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="BG27" s="0" t="s">
+      <c r="BO27" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="BL27" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM27" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="BN27" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BO27" s="0" t="s">
-        <v>488</v>
-      </c>
       <c r="BP27" s="0" t="s">
-        <v>118</v>
+        <v>312</v>
       </c>
       <c r="BT27" s="0" t="s">
         <v>119</v>
@@ -7671,7 +7983,7 @@
         <v>120</v>
       </c>
       <c r="BV27" s="0" t="s">
-        <v>489</v>
+        <v>313</v>
       </c>
       <c r="BW27" s="0" t="s">
         <v>97</v>
@@ -7698,7 +8010,7 @@
         <v>123</v>
       </c>
       <c r="CE27" s="0" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="CF27" s="0">
         <v>0</v>
@@ -7709,37 +8021,37 @@
         <v>84</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>386</v>
+        <v>487</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>146</v>
+        <v>488</v>
       </c>
       <c r="G28" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="J28" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="I28" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="J28" s="0" t="s">
+      <c r="K28" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="K28" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="L28" s="0" t="s">
+      <c r="M28" s="0" t="s">
         <v>492</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>192</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>86</v>
@@ -7766,22 +8078,22 @@
         <v>86</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>154</v>
+        <v>493</v>
       </c>
       <c r="Y28" s="0" t="s">
-        <v>227</v>
+        <v>494</v>
       </c>
       <c r="Z28" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AA28" s="0" t="s">
-        <v>104</v>
+        <v>496</v>
       </c>
       <c r="AB28" s="0" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="AC28" s="0" t="s">
-        <v>261</v>
+        <v>497</v>
       </c>
       <c r="AD28" s="0" t="s">
         <v>107</v>
@@ -7838,10 +8150,10 @@
         <v>100</v>
       </c>
       <c r="AX28" s="0" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="AY28" s="0" t="s">
-        <v>473</v>
+        <v>425</v>
       </c>
       <c r="AZ28" s="0" t="s">
         <v>110</v>
@@ -7862,25 +8174,25 @@
         <v>112</v>
       </c>
       <c r="BF28" s="0" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="BG28" s="0" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="BL28" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM28" s="0" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="BN28" s="0" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="BO28" s="0" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="BP28" s="0" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="BT28" s="0" t="s">
         <v>119</v>
@@ -7889,7 +8201,7 @@
         <v>120</v>
       </c>
       <c r="BV28" s="0" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="BW28" s="0" t="s">
         <v>97</v>
@@ -7916,7 +8228,7 @@
         <v>123</v>
       </c>
       <c r="CE28" s="0" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="CF28" s="0">
         <v>0</v>
@@ -7927,10 +8239,10 @@
         <v>84</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>87</v>
@@ -7942,25 +8254,25 @@
         <v>146</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>86</v>
@@ -7972,7 +8284,7 @@
         <v>97</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="R29" s="0" t="s">
         <v>96</v>
@@ -7987,19 +8299,19 @@
         <v>101</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="Z29" s="0" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="AA29" s="0" t="s">
-        <v>507</v>
+        <v>104</v>
       </c>
       <c r="AB29" s="0" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="AC29" s="0" t="s">
-        <v>106</v>
+        <v>393</v>
       </c>
       <c r="AD29" s="0" t="s">
         <v>107</v>
@@ -8056,10 +8368,10 @@
         <v>100</v>
       </c>
       <c r="AX29" s="0" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="AY29" s="0" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="AZ29" s="0" t="s">
         <v>110</v>
@@ -8080,22 +8392,22 @@
         <v>112</v>
       </c>
       <c r="BF29" s="0" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="BG29" s="0" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="BL29" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM29" s="0" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="BN29" s="0" t="s">
-        <v>335</v>
+        <v>116</v>
       </c>
       <c r="BO29" s="0" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="BP29" s="0" t="s">
         <v>118</v>
@@ -8107,7 +8419,7 @@
         <v>120</v>
       </c>
       <c r="BV29" s="0" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="BW29" s="0" t="s">
         <v>97</v>
@@ -8134,7 +8446,7 @@
         <v>123</v>
       </c>
       <c r="CE29" s="0" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="CF29" s="0">
         <v>0</v>
@@ -8145,37 +8457,37 @@
         <v>84</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>88</v>
+        <v>398</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>146</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>513</v>
+        <v>285</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="N30" s="0" t="s">
         <v>86</v>
@@ -8199,22 +8511,25 @@
         <v>100</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="W30" s="0" t="s">
-        <v>516</v>
+        <v>86</v>
+      </c>
+      <c r="V30" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y30" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="Z30" s="0" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="AA30" s="0" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="AB30" s="0" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="AC30" s="0" t="s">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="AD30" s="0" t="s">
         <v>107</v>
@@ -8271,10 +8586,10 @@
         <v>100</v>
       </c>
       <c r="AX30" s="0" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AY30" s="0" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="AZ30" s="0" t="s">
         <v>110</v>
@@ -8295,25 +8610,25 @@
         <v>112</v>
       </c>
       <c r="BF30" s="0" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="BG30" s="0" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="BL30" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM30" s="0" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="BN30" s="0" t="s">
-        <v>335</v>
+        <v>527</v>
       </c>
       <c r="BO30" s="0" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="BP30" s="0" t="s">
-        <v>118</v>
+        <v>413</v>
       </c>
       <c r="BT30" s="0" t="s">
         <v>119</v>
@@ -8322,7 +8637,7 @@
         <v>120</v>
       </c>
       <c r="BV30" s="0" t="s">
-        <v>489</v>
+        <v>529</v>
       </c>
       <c r="BW30" s="0" t="s">
         <v>97</v>
@@ -8349,7 +8664,7 @@
         <v>123</v>
       </c>
       <c r="CE30" s="0" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="CF30" s="0">
         <v>0</v>
@@ -8360,37 +8675,37 @@
         <v>84</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>520</v>
+        <v>398</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>146</v>
+        <v>432</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>522</v>
+        <v>285</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>225</v>
+        <v>531</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="N31" s="0" t="s">
         <v>86</v>
@@ -8417,23 +8732,29 @@
         <v>86</v>
       </c>
       <c r="V31" s="0" t="s">
-        <v>524</v>
+        <v>154</v>
       </c>
       <c r="Y31" s="0" t="s">
-        <v>525</v>
+        <v>229</v>
       </c>
       <c r="Z31" s="0" t="s">
-        <v>526</v>
+        <v>533</v>
+      </c>
+      <c r="AA31" s="0" t="s">
+        <v>104</v>
       </c>
       <c r="AB31" s="0" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="AC31" s="0" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="AD31" s="0" t="s">
         <v>107</v>
       </c>
+      <c r="AF31" s="0" t="s">
+        <v>108</v>
+      </c>
       <c r="AG31" s="0" t="s">
         <v>101</v>
       </c>
@@ -8483,10 +8804,10 @@
         <v>100</v>
       </c>
       <c r="AX31" s="0" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="AY31" s="0" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AZ31" s="0" t="s">
         <v>110</v>
@@ -8507,25 +8828,25 @@
         <v>112</v>
       </c>
       <c r="BF31" s="0" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="BG31" s="0" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="BL31" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM31" s="0" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="BN31" s="0" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="BO31" s="0" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="BP31" s="0" t="s">
-        <v>531</v>
+        <v>447</v>
       </c>
       <c r="BT31" s="0" t="s">
         <v>119</v>
@@ -8534,7 +8855,7 @@
         <v>120</v>
       </c>
       <c r="BV31" s="0" t="s">
-        <v>532</v>
+        <v>448</v>
       </c>
       <c r="BW31" s="0" t="s">
         <v>97</v>
@@ -8561,7 +8882,7 @@
         <v>123</v>
       </c>
       <c r="CE31" s="0" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="CF31" s="0">
         <v>0</v>
@@ -8572,43 +8893,43 @@
         <v>84</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>534</v>
+        <v>88</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>146</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>537</v>
+        <v>329</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>476</v>
+        <v>541</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>96</v>
@@ -8632,25 +8953,25 @@
         <v>101</v>
       </c>
       <c r="W32" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="Z32" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AA32" s="0" t="s">
-        <v>194</v>
+        <v>440</v>
       </c>
       <c r="AB32" s="0" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="AC32" s="0" t="s">
-        <v>261</v>
+        <v>106</v>
       </c>
       <c r="AD32" s="0" t="s">
         <v>107</v>
       </c>
       <c r="AF32" s="0" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="AG32" s="0" t="s">
         <v>101</v>
@@ -8701,10 +9022,10 @@
         <v>100</v>
       </c>
       <c r="AX32" s="0" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="AY32" s="0" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AZ32" s="0" t="s">
         <v>110</v>
@@ -8725,25 +9046,25 @@
         <v>112</v>
       </c>
       <c r="BF32" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="BG32" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="BL32" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM32" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="BN32" s="0" t="s">
-        <v>545</v>
+        <v>337</v>
       </c>
       <c r="BO32" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="BP32" s="0" t="s">
-        <v>547</v>
+        <v>118</v>
       </c>
       <c r="BT32" s="0" t="s">
         <v>119</v>
@@ -8752,7 +9073,7 @@
         <v>120</v>
       </c>
       <c r="BV32" s="0" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="BW32" s="0" t="s">
         <v>97</v>
@@ -8776,10 +9097,10 @@
         <v>122</v>
       </c>
       <c r="CD32" s="0" t="s">
-        <v>549</v>
+        <v>123</v>
       </c>
       <c r="CE32" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="CF32" s="0">
         <v>0</v>
@@ -8790,40 +9111,37 @@
         <v>84</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>457</v>
+        <v>88</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>481</v>
+        <v>146</v>
       </c>
       <c r="G33" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="J33" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="K33" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L33" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="I33" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="L33" s="0" t="s">
-        <v>554</v>
-      </c>
       <c r="M33" s="0" t="s">
-        <v>406</v>
+        <v>101</v>
       </c>
       <c r="N33" s="0" t="s">
         <v>86</v>
@@ -8847,31 +9165,28 @@
         <v>100</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="V33" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y33" s="0" t="s">
-        <v>555</v>
+        <v>101</v>
+      </c>
+      <c r="W33" s="0" t="s">
+        <v>552</v>
       </c>
       <c r="Z33" s="0" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AA33" s="0" t="s">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="AB33" s="0" t="s">
         <v>105</v>
       </c>
       <c r="AC33" s="0" t="s">
-        <v>557</v>
+        <v>106</v>
       </c>
       <c r="AD33" s="0" t="s">
         <v>107</v>
       </c>
       <c r="AF33" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AG33" s="0" t="s">
         <v>101</v>
@@ -8922,10 +9237,10 @@
         <v>100</v>
       </c>
       <c r="AX33" s="0" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="AY33" s="0" t="s">
-        <v>473</v>
+        <v>514</v>
       </c>
       <c r="AZ33" s="0" t="s">
         <v>110</v>
@@ -8946,25 +9261,25 @@
         <v>112</v>
       </c>
       <c r="BF33" s="0" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="BG33" s="0" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="BL33" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM33" s="0" t="s">
-        <v>560</v>
+        <v>336</v>
       </c>
       <c r="BN33" s="0" t="s">
-        <v>561</v>
+        <v>337</v>
       </c>
       <c r="BO33" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="BP33" s="0" t="s">
-        <v>427</v>
+        <v>118</v>
       </c>
       <c r="BT33" s="0" t="s">
         <v>119</v>
@@ -8973,7 +9288,7 @@
         <v>120</v>
       </c>
       <c r="BV33" s="0" t="s">
-        <v>474</v>
+        <v>519</v>
       </c>
       <c r="BW33" s="0" t="s">
         <v>97</v>
@@ -9000,7 +9315,7 @@
         <v>123</v>
       </c>
       <c r="CE33" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="CF33" s="0">
         <v>0</v>
@@ -9011,49 +9326,46 @@
         <v>84</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>88</v>
+        <v>556</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>565</v>
+        <v>227</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>566</v>
+        <v>211</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="N34" s="0" t="s">
         <v>86</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>568</v>
+        <v>96</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>569</v>
+        <v>97</v>
       </c>
       <c r="Q34" s="0" t="s">
         <v>98</v>
@@ -9068,29 +9380,26 @@
         <v>100</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="W34" s="0" t="s">
-        <v>482</v>
+        <v>86</v>
+      </c>
+      <c r="V34" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y34" s="0" t="s">
+        <v>561</v>
       </c>
       <c r="Z34" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="AA34" s="0" t="s">
-        <v>104</v>
+        <v>562</v>
       </c>
       <c r="AB34" s="0" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="AC34" s="0" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AD34" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="AF34" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="AG34" s="0" t="s">
         <v>101</v>
       </c>
@@ -9140,10 +9449,10 @@
         <v>100</v>
       </c>
       <c r="AX34" s="0" t="s">
-        <v>571</v>
+        <v>528</v>
       </c>
       <c r="AY34" s="0" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="AZ34" s="0" t="s">
         <v>110</v>
@@ -9164,25 +9473,25 @@
         <v>112</v>
       </c>
       <c r="BF34" s="0" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="BG34" s="0" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="BL34" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BM34" s="0" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="BN34" s="0" t="s">
-        <v>116</v>
+        <v>566</v>
       </c>
       <c r="BO34" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="BP34" s="0" t="s">
-        <v>118</v>
+        <v>567</v>
       </c>
       <c r="BT34" s="0" t="s">
         <v>119</v>
@@ -9191,7 +9500,7 @@
         <v>120</v>
       </c>
       <c r="BV34" s="0" t="s">
-        <v>121</v>
+        <v>568</v>
       </c>
       <c r="BW34" s="0" t="s">
         <v>97</v>
@@ -9218,9 +9527,2189 @@
         <v>123</v>
       </c>
       <c r="CE34" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="CF34" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="S35" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="T35" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="U35" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="V35" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y35" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z35" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA35" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB35" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC35" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS35" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT35" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU35" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV35" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW35" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX35" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="AY35" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="AZ35" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB35" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC35" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD35" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE35" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF35" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="BG35" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="BL35" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM35" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="BN35" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="BO35" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="BP35" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="BT35" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU35" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV35" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="BW35" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX35" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY35" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BZ35" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA35" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB35" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="CC35" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD35" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="CE35" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="CF35" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="R36" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="T36" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="U36" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="W36" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z36" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA36" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB36" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC36" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD36" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF36" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG36" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH36" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI36" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ36" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK36" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM36" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN36" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO36" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP36" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ36" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR36" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS36" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT36" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU36" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV36" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW36" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX36" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AY36" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="AZ36" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA36" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB36" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC36" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD36" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE36" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF36" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="BG36" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="BL36" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM36" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="BN36" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="BO36" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="BP36" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="BT36" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU36" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV36" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="BW36" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX36" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY36" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BZ36" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA36" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB36" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="CC36" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD36" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="CE36" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="CF36" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="T37" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="U37" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="W37" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z37" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="AA37" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB37" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC37" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD37" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF37" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG37" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH37" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI37" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ37" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK37" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM37" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN37" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO37" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP37" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ37" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR37" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS37" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT37" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU37" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV37" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW37" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX37" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="AY37" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="AZ37" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA37" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB37" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC37" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD37" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF37" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="BG37" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="BL37" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM37" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="BN37" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BO37" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="BP37" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT37" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU37" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV37" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW37" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX37" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY37" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BZ37" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA37" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB37" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="CC37" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD37" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="CE37" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="CF37" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="T38" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="U38" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="V38" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y38" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="Z38" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="AA38" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB38" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC38" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="AD38" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF38" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG38" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH38" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI38" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ38" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK38" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM38" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN38" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO38" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP38" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ38" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR38" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS38" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT38" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU38" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV38" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW38" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX38" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="AY38" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ38" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA38" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB38" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC38" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD38" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE38" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF38" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="BG38" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="BL38" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM38" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="BN38" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="BO38" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="BP38" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="BT38" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU38" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV38" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="BW38" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX38" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY38" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BZ38" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA38" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB38" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="CC38" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD38" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="CE38" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="CF38" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="R39" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="T39" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="V39" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y39" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z39" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA39" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB39" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC39" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD39" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF39" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG39" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH39" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI39" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ39" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK39" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM39" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN39" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO39" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP39" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ39" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR39" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS39" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT39" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU39" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV39" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW39" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX39" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="AY39" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="AZ39" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA39" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB39" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC39" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD39" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE39" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF39" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="BG39" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="BL39" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM39" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="BN39" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="BO39" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="BP39" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="BT39" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU39" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV39" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="BW39" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX39" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY39" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BZ39" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA39" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB39" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="CC39" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD39" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="CE39" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="CF39" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="R40" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="T40" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="U40" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="W40" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="Z40" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA40" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB40" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC40" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD40" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF40" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG40" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH40" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI40" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ40" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK40" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM40" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN40" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO40" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP40" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ40" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR40" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS40" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT40" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU40" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV40" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW40" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX40" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY40" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="AZ40" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA40" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB40" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC40" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD40" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE40" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF40" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="BG40" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="BL40" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM40" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="BN40" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BO40" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="BP40" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT40" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU40" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW40" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX40" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY40" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="BZ40" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA40" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB40" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="CC40" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD40" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="CE40" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="CF40" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="R41" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="S41" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="T41" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="U41" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="W41" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z41" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="AA41" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB41" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC41" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD41" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF41" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG41" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH41" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI41" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ41" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK41" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM41" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN41" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO41" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP41" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ41" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR41" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS41" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT41" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU41" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV41" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW41" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX41" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="AY41" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ41" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA41" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB41" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC41" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD41" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE41" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF41" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="BG41" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="BL41" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM41" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="BN41" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BO41" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="BP41" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT41" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU41" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV41" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="BW41" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BZ41" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="CC41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="CE41" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="CF41" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q42" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="R42" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="S42" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="T42" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="U42" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="W42" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="Z42" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="AA42" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB42" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC42" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD42" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF42" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG42" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH42" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI42" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ42" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK42" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM42" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN42" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO42" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP42" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ42" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR42" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS42" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT42" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU42" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV42" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW42" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX42" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="AY42" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="AZ42" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA42" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB42" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC42" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD42" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE42" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF42" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="BG42" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="BL42" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM42" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="BN42" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BO42" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="BP42" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT42" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU42" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV42" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="BW42" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX42" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY42" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BZ42" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA42" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB42" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="CC42" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD42" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="CE42" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="CF42" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="R43" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="S43" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="T43" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="U43" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="V43" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y43" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="Z43" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="AA43" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="AB43" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC43" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="AD43" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF43" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG43" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH43" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI43" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ43" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK43" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM43" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN43" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO43" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP43" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ43" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR43" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS43" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT43" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU43" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV43" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW43" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX43" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="AY43" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="AZ43" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA43" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB43" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC43" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD43" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE43" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF43" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="BG43" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="BL43" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM43" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="BN43" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="BO43" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="BP43" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="BT43" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU43" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV43" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="BW43" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX43" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY43" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BZ43" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA43" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB43" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="CC43" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD43" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="CE43" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="CF43" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q44" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="R44" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="S44" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="T44" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="U44" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="W44" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="Z44" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="AA44" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB44" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC44" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD44" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF44" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG44" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH44" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI44" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ44" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK44" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM44" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN44" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO44" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP44" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ44" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR44" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS44" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT44" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU44" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV44" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW44" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX44" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="AY44" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ44" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA44" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB44" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC44" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD44" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE44" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF44" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="BG44" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="BL44" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM44" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="BN44" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BO44" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="BP44" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT44" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU44" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV44" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW44" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX44" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY44" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="BZ44" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA44" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB44" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="CC44" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD44" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="CE44" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="CF44" s="0">
         <v>0</v>
       </c>
     </row>
